--- a/biology/Médecine/Joseph_Ducuing/Joseph_Ducuing.xlsx
+++ b/biology/Médecine/Joseph_Ducuing/Joseph_Ducuing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Ducuing est un médecin français né à Toulouse le 14 avril 1885 et mort le 11 avril 1963 à Vigoulet-Auzil, qui a dirigé le Centre régional anti-cancéreux (CRAC) de Toulouse pendant 20 ans et qui a donné son nom à l'hôpital Joseph-Ducuing faisant partie des membres fondateurs.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Ducuing est né à Toulouse le 14 avril 1885 dans une famille de cinq enfants. Ses parents, Urbain et Henriette (née Courapied) tiennent un commerce de fournitures pour cafés et hôtels place Lafayette (actuelle place Wilson). Son père, négociant et voyageur de commerce, est vraisemblablement représentant en porcelaine de Limoges.
 Il fréquente le lycée de garçons et en juillet 1906 il réussit le concours Physique-Chimie-Sciences naturelles (PCN) qui lui permet d'entrer en faculté de médecine.
@@ -526,14 +540,14 @@
 Sa deuxième fille, Yvonne, épouse en 1928 le peintre Marc Saint-Saëns qu'elle a connu chez le professeur Camille Soula, ami de son père. Son gendre l'a représenté dans deux de ses fresques réalisées en 1935 :
 celle de la salle de consultation du CRAC (aujourd'hui exposée dans une salle de conférence de l'Institut Claudius Regaud)
 celle de la salle de lecture de la bibliothèque municipale de Toulouse
-En 1929 il est nommé directeur du CRAC qu'il dirige pendant vingt ans en modernisant et rénovant les équipements[1].
+En 1929 il est nommé directeur du CRAC qu'il dirige pendant vingt ans en modernisant et rénovant les équipements.
 En 1932 il fonde l'association régionale de lutte contre le cancer.
 Durant la seconde guerre mondiale, le gouvernement de Vichy le relève de ses fonctions professionnelles en raison de appartenance au parti communiste.
-Il a apporté son aide et a fait travailler des médecins républicains espagnols réfugiés à Toulouse chassés par l'Espagne franquiste[2]. Il fréquente la librairie de Silvio Trentin qui à partir de 1936 est le lieu de rencontre des antifascistes toulousains puis devient pendant la guerre celui des résistants.
+Il a apporté son aide et a fait travailler des médecins républicains espagnols réfugiés à Toulouse chassés par l'Espagne franquiste. Il fréquente la librairie de Silvio Trentin qui à partir de 1936 est le lieu de rencontre des antifascistes toulousains puis devient pendant la guerre celui des résistants.
 En 1941 il est partiellement rétabli dans ses fonctions dont il retrouve l'intégralité en 1945.
 En 1946 son service est transféré de l'Hôtel-Dieu de Toulouse au nouvel hôpital Purpan.
 Tout au long de sa carrière il effectue des voyages en Belgique, aux États-Unis, en Angleterre, en Espagne, en URSS, en Hongrie, en Italie, en Chine, au Vietnam, au Mexique pour participer à des congrès et conférences et visiter des hôpitaux dont il reprendra certaines idées pour moderniser les équipements toulousains.
-Il prend sa retraite le 1er octobre 1958 et décède le 11 avril 1963 dans sa résidence de Vigoulet-Auzil[3].
+Il prend sa retraite le 1er octobre 1958 et décède le 11 avril 1963 dans sa résidence de Vigoulet-Auzil.
 </t>
         </is>
       </c>
@@ -562,7 +576,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Phlébites, thromboses et ambolies post-opératoires, 1921
 La phlébite, 1926
